--- a/src/main/resources/modules/Preq.xlsx
+++ b/src/main/resources/modules/Preq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF816E87-ED08-4F43-AC79-9A929A5FA5DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4ED951-952C-452B-B674-DF4603A93D20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -313,9 +313,6 @@
     <t>testing</t>
   </si>
   <si>
-    <t>Property Name,$Property_propertyName_0</t>
-  </si>
-  <si>
     <t>UIBase.waitForRevision</t>
   </si>
   <si>
@@ -332,6 +329,9 @@
   </si>
   <si>
     <t>UtilKeywordScript.redirectHomePage</t>
+  </si>
+  <si>
+    <t>(Property Name),$Property_propertyName_0</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:V1048090"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
+    <sheetView topLeftCell="E13" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1913,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589458C9-FE7B-4D48-BBC3-FB5C44A960DA}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H31"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,7 +2665,7 @@
         <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="44" t="s">
@@ -2713,7 +2713,7 @@
       <c r="C29" s="40"/>
       <c r="D29" s="41"/>
       <c r="E29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>57</v>
@@ -2735,7 +2735,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="43" t="s">
         <v>67</v>
@@ -2747,7 +2747,7 @@
         <v>57</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="44" t="s">
@@ -2765,13 +2765,13 @@
         <v>17</v>
       </c>
       <c r="C31" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="E31" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>101</v>
       </c>
       <c r="F31" s="46"/>
       <c r="G31" s="45"/>

--- a/src/main/resources/modules/Preq.xlsx
+++ b/src/main/resources/modules/Preq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="1230" windowWidth="8430" windowHeight="11655" activeTab="3"/>
+    <workbookView xWindow="20370" yWindow="1680" windowWidth="8430" windowHeight="11655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -1527,6 +1527,12 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1538,96 +1544,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="77">
     <dxf>
       <fill>
         <patternFill>
@@ -4270,21 +4193,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="87" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A13">
-    <cfRule type="duplicateValues" dxfId="86" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="85" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="129" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="84" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="127" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="128" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4334,8 +4257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G161" sqref="G161"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4996,10 +4919,10 @@
     <row r="20" spans="1:26" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="67"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
       <c r="G20" s="68"/>
       <c r="H20" s="69"/>
       <c r="I20" s="70"/>
@@ -5096,12 +5019,12 @@
     <row r="23" spans="1:26" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66"/>
       <c r="B23" s="67"/>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="149"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="151"/>
       <c r="G23" s="68"/>
       <c r="H23" s="69"/>
       <c r="I23" s="70"/>
@@ -5387,7 +5310,7 @@
         <v>5</v>
       </c>
       <c r="J32" s="88" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K32" s="89" t="s">
         <v>137</v>
@@ -5417,13 +5340,13 @@
         <v>5</v>
       </c>
       <c r="J33" s="88" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K33" s="89" t="s">
         <v>139</v>
       </c>
       <c r="L33" s="90">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -6331,12 +6254,12 @@
     <row r="66" spans="1:26" s="142" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="136"/>
       <c r="B66" s="137"/>
-      <c r="C66" s="151" t="s">
+      <c r="C66" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="152"/>
-      <c r="E66" s="152"/>
-      <c r="F66" s="152"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="148"/>
       <c r="G66" s="139"/>
       <c r="H66" s="140"/>
       <c r="I66" s="137"/>
@@ -8385,12 +8308,12 @@
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="136"/>
       <c r="B135" s="137"/>
-      <c r="C135" s="151" t="s">
+      <c r="C135" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="D135" s="152"/>
-      <c r="E135" s="152"/>
-      <c r="F135" s="152"/>
+      <c r="D135" s="148"/>
+      <c r="E135" s="148"/>
+      <c r="F135" s="148"/>
       <c r="G135" s="139"/>
       <c r="H135" s="140"/>
       <c r="I135" s="137"/>
@@ -10452,6 +10375,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
     <mergeCell ref="C155:F155"/>
     <mergeCell ref="C165:F165"/>
     <mergeCell ref="C167:F167"/>
@@ -10461,36 +10390,30 @@
     <mergeCell ref="C135:F135"/>
     <mergeCell ref="C136:F136"/>
     <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
